--- a/data/trans_dic/P33B_R5-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R5-Edad-trans_dic.xlsx
@@ -584,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01240488062502731</v>
+        <v>0.01422353697367905</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01087874673850055</v>
+        <v>0.01119258147986316</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0530465138203693</v>
+        <v>0.05310264146469646</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06436461935790151</v>
+        <v>0.06571841065301053</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04793874274038747</v>
+        <v>0.04701976296998122</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.003430685680619024</v>
+        <v>0.002832672812560579</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01657513032905842</v>
+        <v>0.01722592691471968</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01250440488974348</v>
+        <v>0.01298507156323746</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02774286512187688</v>
+        <v>0.02610788972114001</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04986627375636607</v>
+        <v>0.05198762612636741</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03239932488857471</v>
+        <v>0.0320609269921855</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02220708735374095</v>
+        <v>0.02202758628882984</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04813915928932472</v>
+        <v>0.0479368948237606</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03882639663024846</v>
+        <v>0.03954773459434169</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05305511595617932</v>
+        <v>0.05263956219490933</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08259549580286395</v>
+        <v>0.08215917220019922</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06072815605315902</v>
+        <v>0.06192104390451889</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.05318992241910059</v>
+        <v>0.05318992241910058</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.09601693771497176</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.07513802331612614</v>
+        <v>0.07513802331612615</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03762002920695733</v>
+        <v>0.03803805417392051</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07923248388944044</v>
+        <v>0.07905964726304592</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06228918038474137</v>
+        <v>0.06424148213955125</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.074220630851814</v>
+        <v>0.07433818017945894</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1145816664326668</v>
+        <v>0.1148465783507416</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08821529983285385</v>
+        <v>0.08813261501831741</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.09481796628322786</v>
+        <v>0.09481796628322788</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.1990364833865141</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07423985976024659</v>
+        <v>0.07333141737585097</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1749235251472425</v>
+        <v>0.1718961061206739</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1317693898692696</v>
+        <v>0.1304950097800983</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1179661256496142</v>
+        <v>0.1182458014632711</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2237698483576003</v>
+        <v>0.2259180346092745</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.16519829175276</v>
+        <v>0.1656634915817831</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.09581533799437944</v>
+        <v>0.09462924915721782</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1686979857197824</v>
+        <v>0.1690456165402538</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1405971895075513</v>
+        <v>0.1395632228391462</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1487989271525888</v>
+        <v>0.1496176299294102</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2237919022788778</v>
+        <v>0.223309732717924</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1796655918155912</v>
+        <v>0.1793379766274936</v>
       </c>
     </row>
     <row r="22">
@@ -897,10 +897,10 @@
         <v>0.1930452849553837</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2805408986950388</v>
+        <v>0.2805408986950389</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2454845792220615</v>
+        <v>0.2454845792220614</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1586836976268361</v>
+        <v>0.1578920391586599</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2473048987374035</v>
+        <v>0.250492019112313</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2210036882355298</v>
+        <v>0.2236865775266506</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2337885339673593</v>
+        <v>0.2334188223481126</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3122543717512121</v>
+        <v>0.3126748054508248</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2712368538538051</v>
+        <v>0.272191161022219</v>
       </c>
     </row>
     <row r="25">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.06728886791613733</v>
+        <v>0.06728886791613735</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.1270432282657868</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.0979976729734347</v>
+        <v>0.09799767297343469</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.059364567372551</v>
+        <v>0.05932125314776258</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1179660631391724</v>
+        <v>0.1181773772745416</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0917854513726757</v>
+        <v>0.09227477570672978</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.07670424878315606</v>
+        <v>0.07595926641736855</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1361308690695757</v>
+        <v>0.136338579129646</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1041034884735832</v>
+        <v>0.1047102960569844</v>
       </c>
     </row>
     <row r="28">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4497</v>
+        <v>5156</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8380</v>
+        <v>8622</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>21632</v>
+        <v>21655</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23333</v>
+        <v>23824</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>36927</v>
+        <v>36220</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1636</v>
+        <v>1351</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8306</v>
+        <v>8632</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>12229</v>
+        <v>12699</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13230</v>
+        <v>12451</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>24987</v>
+        <v>26050</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>31686</v>
+        <v>31355</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>13787</v>
+        <v>13676</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>29949</v>
+        <v>29823</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>48260</v>
+        <v>49157</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>32939</v>
+        <v>32681</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>51386</v>
+        <v>51114</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>75484</v>
+        <v>76966</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>26357</v>
+        <v>26650</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>58354</v>
+        <v>58227</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>89517</v>
+        <v>92322</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>52000</v>
+        <v>52083</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>84389</v>
+        <v>84584</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>126775</v>
+        <v>126656</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>45084</v>
+        <v>44532</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>106377</v>
+        <v>104536</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>160154</v>
+        <v>158605</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>71638</v>
+        <v>71808</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>136082</v>
+        <v>137388</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>200784</v>
+        <v>201349</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>39005</v>
+        <v>38522</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>73974</v>
+        <v>74126</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>118886</v>
+        <v>118011</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>60573</v>
+        <v>60906</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>98132</v>
+        <v>97921</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>151921</v>
+        <v>151644</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>49223</v>
+        <v>48978</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>114753</v>
+        <v>116232</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>171103</v>
+        <v>173181</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>72521</v>
+        <v>72406</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>144890</v>
+        <v>145085</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>209995</v>
+        <v>210733</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>209598</v>
+        <v>209445</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>440352</v>
+        <v>441141</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>666690</v>
+        <v>670244</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>270819</v>
+        <v>268189</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>508159</v>
+        <v>508935</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>756162</v>
+        <v>760570</v>
       </c>
     </row>
     <row r="36">
